--- a/data/trans_bre/P1429-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1429-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.053362372264335</v>
+        <v>3.933424963342233</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.355798473772918</v>
+        <v>6.361532699619586</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.453081672033734</v>
+        <v>4.557559395340297</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7.55389449017938</v>
+        <v>7.559131108412863</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1.458619135851606</v>
+        <v>1.461498506372525</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.998370804906548</v>
+        <v>5.307872160959308</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>3.409594078651849</v>
+        <v>3.6547220460269</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>2.473714679262507</v>
+        <v>2.440827760941541</v>
       </c>
     </row>
     <row r="6">
@@ -692,26 +692,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.241967022148141</v>
+        <v>7.234738922395081</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.520101342843859</v>
+        <v>9.670852606350218</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.024697189249938</v>
+        <v>8.096065147990055</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.54067391705787</v>
+        <v>11.46216023328664</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5.153668264821096</v>
+        <v>5.152903534714725</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
-        <v>32.1722598233298</v>
+        <v>30.01165266582709</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8.671506995967846</v>
+        <v>8.379273313282377</v>
       </c>
     </row>
     <row r="7">
@@ -747,7 +747,7 @@
         <v>8.650418169688004</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>3.237217381146111</v>
+        <v>3.23721738114611</v>
       </c>
     </row>
     <row r="8">
@@ -758,28 +758,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.029143146610989</v>
+        <v>0.9496142969764738</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7128018546709531</v>
+        <v>0.7211278260764015</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.372492296608524</v>
+        <v>1.38634333149546</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.412295764029927</v>
+        <v>1.398513647788471</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8664177549490047</v>
+        <v>0.8376634257333679</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.931558108989242</v>
+        <v>1.421532807715991</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>2.77834823832749</v>
+        <v>2.728207448188338</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>1.030747512406657</v>
+        <v>0.967698528473417</v>
       </c>
     </row>
     <row r="9">
@@ -790,28 +790,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.754772387908675</v>
+        <v>2.637036869324083</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.945368926874238</v>
+        <v>1.962371043153128</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.749124070464127</v>
+        <v>2.791177895274126</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.910746937122378</v>
+        <v>2.919348014321087</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>7.995149561277046</v>
+        <v>7.815547912100551</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>37.0048241101617</v>
+        <v>32.28422539027701</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>24.61851116065968</v>
+        <v>25.73094493887814</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>7.347120120093927</v>
+        <v>7.505499681249658</v>
       </c>
     </row>
     <row r="10">
@@ -860,26 +860,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3646926427022634</v>
+        <v>-0.3130743604699888</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7641964894322743</v>
+        <v>0.82274929535229</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2269918797152989</v>
+        <v>0.1466181581720862</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.500734744175296</v>
+        <v>1.397516759421701</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6207090102210018</v>
+        <v>-0.560289051495216</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>-0.2683622550711336</v>
+        <v>-0.08732362692880827</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1.804569041837394</v>
+        <v>1.653746470639648</v>
       </c>
     </row>
     <row r="12">
@@ -890,22 +890,24 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.005576815888416</v>
+        <v>2.114145748246326</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.777715899895095</v>
+        <v>3.733132448327919</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.034066017723951</v>
+        <v>2.834633047891895</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.333894384859758</v>
-      </c>
-      <c r="G12" s="6" t="inlineStr"/>
+        <v>3.434489267114333</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>11.33015557745682</v>
+      </c>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>27.40327089006237</v>
+        <v>30.3634722680194</v>
       </c>
     </row>
     <row r="13">
@@ -952,28 +954,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.485326779581507</v>
+        <v>2.547602437218084</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.126068325756652</v>
+        <v>3.083624933451921</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.510171920448669</v>
+        <v>2.471487945697513</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.263944433904547</v>
+        <v>3.272575380259063</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1.823051344878582</v>
+        <v>1.88178594012663</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7.706995831273239</v>
+        <v>7.408151941234172</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>4.35060724321114</v>
+        <v>4.368549081803159</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2.570331955401158</v>
+        <v>2.725074134978845</v>
       </c>
     </row>
     <row r="15">
@@ -984,28 +986,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.046601026104701</v>
+        <v>4.052304000499627</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.582749918709381</v>
+        <v>4.528558101003393</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.859310416967788</v>
+        <v>3.868187704031813</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.557405275170129</v>
+        <v>4.449650874909254</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5.167320626873993</v>
+        <v>4.999481685988195</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>68.47351860619436</v>
+        <v>63.90613458180637</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>17.42724382724573</v>
+        <v>17.95533225639726</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>6.993930025066546</v>
+        <v>7.005443656310202</v>
       </c>
     </row>
     <row r="16">
